--- a/biology/Zoologie/Chien_de_flic_3/Chien_de_flic_3.xlsx
+++ b/biology/Zoologie/Chien_de_flic_3/Chien_de_flic_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chien de flic 3 ou K-9: Enquêteur privé au Québec (K-9: P.I.) est un film américano-canadien réalisé par Richard J. Lewis, sorti directement en vidéo en 2002. Il s'agit du troisième et dernier volet d'une série de films débutée avec Chien de flic sorti en 1989.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inspecteur Mike Dooley et son berger allemand Jerry Lee sont prêts à prendre leur retraite des forces de police de San Diego. Mais avant qu'il puisse partir avec sa pension, Dooley doit travailler comme détective privé pour retrouver une paire de puces informatiques high-tech.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : K-9: P.I.
@@ -566,9 +582,9 @@
 Format : couleur
 Genre : comédie policière, buddy movie
 Durée : 95 minutes
-Dates de sortie[1] :
+Dates de sortie :
  États-Unis : 30 juillet 2002 (vidéo)
- France : 4 mars 2003[2] (vidéo)</t>
+ France : 4 mars 2003 (vidéo)</t>
         </is>
       </c>
     </row>
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>James Belushi (VF : Patrick Floersheim)  : Mike Dooley
 Gary Basaraba : Pete Timmons
@@ -648,9 +666,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu entre mai et juin 2001 à Vancouver[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu entre mai et juin 2001 à Vancouver.
 </t>
         </is>
       </c>
@@ -679,9 +699,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film reçoit des critiques négatives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 0% d'opinions favorables pour 6 critiques et une note moyenne de 4,34⁄10[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques négatives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 0% d'opinions favorables pour 6 critiques et une note moyenne de 4,34⁄10.
 </t>
         </is>
       </c>
@@ -710,7 +732,9 @@
           <t>Saga Chien de flic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1989 : Chien de flic (K-9) de Rod Daniel
 1999 : Chien de flic 2 (K-911) de Charles T. Kanganis
